--- a/LitPro/config/TestData.xlsx
+++ b/LitPro/config/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t>Username</t>
   </si>
@@ -349,6 +349,48 @@
   </si>
   <si>
     <t>1214052928</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_12Feb0547</t>
+  </si>
+  <si>
+    <t>1214054944</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_12Feb0553</t>
+  </si>
+  <si>
+    <t>1214055556</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_12Feb0750</t>
+  </si>
+  <si>
+    <t>1214075219</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_12Feb0849</t>
+  </si>
+  <si>
+    <t>1214085245</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_12Feb0859</t>
+  </si>
+  <si>
+    <t>1214090214</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_13Feb1021</t>
+  </si>
+  <si>
+    <t>1314102326</t>
+  </si>
+  <si>
+    <t>Ashgrove_Smoke School_13Feb1028</t>
+  </si>
+  <si>
+    <t>1314104700</t>
   </si>
 </sst>
 </file>
@@ -763,7 +805,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId45"/>
+    <hyperlink ref="A2" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -871,7 +913,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId45"/>
+    <hyperlink ref="J2" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -942,13 +984,13 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -1199,7 +1241,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId45"/>
+    <hyperlink ref="B2" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1355,8 +1397,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId90" display="welcome@123"/>
-    <hyperlink ref="F2" r:id="rId91" display="welcome@123"/>
+    <hyperlink ref="E2" r:id="rId146" display="welcome@123"/>
+    <hyperlink ref="F2" r:id="rId147" display="welcome@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
